--- a/extracted_excel/Kwale_gendered_enterprise.xlsx
+++ b/extracted_excel/Kwale_gendered_enterprise.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="53">
-  <si>
-    <t>County</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="51">
   <si>
     <t>Theme</t>
   </si>
@@ -28,9 +25,6 @@
     <t>Response</t>
   </si>
   <si>
-    <t>Kwale</t>
-  </si>
-  <si>
     <t>Enterprise Selection and Community Involvement</t>
   </si>
   <si>
@@ -145,7 +139,7 @@
     <t>criteria used for food security- farmers can not be convinced to do commercial agriculture if there is not enough food in the household, leading to selection of crops like maize, cowpeas, sorghum and green grams. cultural practices- in kwale county maize is the staple food, that means it is the main choice of food crop in every household</t>
   </si>
   <si>
-    <t>meeting, barazas and discussions , the value chains already had strategies in place ,</t>
+    <t>sensitization is there through barazas, extension staff, administrations (chiefs, administrators) meeting, barazas and discussions , the value chains already had strategies in place ,</t>
   </si>
   <si>
     <t>women tend to choose small enterprises eg sweet potatoes, green grams, cowpeas and indigenous chicken -do not own land, enterprises require less capital men tend to go for the major enterprise - men are decision makers elderly go for the less labour intensive enterprises such as weaving baskets and makuti. youth shift to small enterprises that have quick return but in most cases they are not involved in agriculture - they seek employment</t>
@@ -157,7 +151,7 @@
     <t>farm size,</t>
   </si>
   <si>
-    <t>land, Finance-the overall financial landscape for access including the informal such as community Savings and loans associations) Saccos banks, insurance services Access to training and knowledge/extension Access to information as market, weather Access to technology eg ICT, digital gadgets, internet, digital literacy Resource Men Women Youth Elderly Land Normally own the land Mostly through the permission of the men Some lease, access through permissive or as inheritance Elderly men own the land until they die. Elderly women are the custodians of the land after the death of their husbands Finance Men easily access loans from the banks and cooperatives. They own most of the resources so they can sell Women are active and have access to VSLA (Village savings and loan association). Male youth access loans from the digital platforms. Some access finance from youth groups. Provision of labour in various construction sites and county governments. Betting is another source of finances for the youth Some are in elderly schemes. Mostly sale their assets. They are assisted by their children. Access to training and knowledge/extension Highly. Mostly men have free time to attend meetings Women do not have as much time but considerable number of women attend trainings Youths do not mostly attend physical but online meetings. They have digital access to this information Elderly attend meetings. Elderly have capacity and can implement the extension knowledge Access to information as market, weather High. Majority men have phones as compared to women Low. A few have smart phones High Very low Access to technology eg ICT, digital gadgets, internet, digital literacy High. Majority men have phones as compared to women Low. A few have smart phones High Very low</t>
+    <t>land, Finance-the overall financial landscape for access including the informal such as community Savings and loans associations) Saccos banks, insurance services Access to training and knowledge/extension Access to information as market, weather Access to technology eg ICT, digital gadgets, internet, digital literacy  Resource Men Women Youth Elderly Land Normally own the land Mostly through the permission of the men Some lease, access through permissive or as inheritance Elderly men own the land until they die. Elderly women are the custodians of the land after the death of their husbands Finance Men easily access loans from the banks and cooperatives. They own most of the resources so they can sell Women are active and have access to VSLA (Village savings and loan association). Male youth access loans from the digital platforms. Some access finance from youth groups. Provision of labour in various construction sites and county governments. Betting is another source of finances for the youth Some are in elderly schemes. Mostly sale their assets. They are assisted by their children. Access to training and knowledge/extension Highly. Mostly men have free time to attend meetings Women do not have as much time but considerable number of women attend trainings Youths do not mostly attend physical but online meetings. They have digital access to this information Elderly attend meetings. Elderly have capacity and can implement the extension knowledge Access to information as market, weather High. Majority men have phones as compared to women Low. A few have smart phones High Very low Access to technology eg ICT, digital gadgets, internet, digital literacy High. Majority men have phones as compared to women Low. A few have smart phones High Very low</t>
   </si>
   <si>
     <t>There is high market for the beef cattle/meat goats as export markets are available. There is also high market and demand for the perennial and cash crops such as cashewnuts(production is low) and coconuts</t>
@@ -166,7 +160,7 @@
     <t>Most value addition of cashewnuts, cassava etc are done by women. if women are to be equipped with disheller machine , cassava chipper machine, packaging materials etc they can stand a better chance to improve their livelihoods</t>
   </si>
   <si>
-    <t>organizing the farmers in groups for ease of extension services. Structured market to minimize influence by brokers. Value addition. Capacity building on the value chain actors</t>
+    <t>organizing the farmers in groups for ease of extension services. Structured market to minimize influence by brokers. Capacity building on the value chain actors</t>
   </si>
   <si>
     <t>There is a national gender policy which has not been customized to Kwale county.</t>
@@ -530,13 +524,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -546,414 +540,324 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
         <v>6</v>
       </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" t="s">
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
         <v>8</v>
       </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" t="s">
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
         <v>8</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
         <v>9</v>
       </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
         <v>9</v>
       </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
         <v>10</v>
       </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
         <v>10</v>
       </c>
-      <c r="C17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" t="s">
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
         <v>10</v>
       </c>
-      <c r="C18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
         <v>10</v>
       </c>
-      <c r="C19" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="B27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
         <v>10</v>
       </c>
-      <c r="C20" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="B28" t="s">
         <v>37</v>
       </c>
-      <c r="D26" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="C28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" t="s">
         <v>38</v>
       </c>
-      <c r="D27" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="C29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" t="s">
         <v>39</v>
       </c>
-      <c r="D28" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" t="s">
-        <v>40</v>
-      </c>
-      <c r="D29" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" t="s">
-        <v>12</v>
-      </c>
       <c r="C30" t="s">
-        <v>41</v>
-      </c>
-      <c r="D30" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
